--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_67.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,630 +488,668 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_8</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1515151515151515</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:min7', 'C:7', 'F:maj'], ['Bb', 'C:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>jaah_31</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3125</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F#:min7', 'B:7', 'E'], ['A', 'B', 'E']]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(39.976, 44.64), (63.861, 66.732)]</t>
+          <t>[['G:7', 'C', 'C', 'G:7']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(5.708194, 10.061936), (50.046698, 55.352457)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:03:49.340000', '0:04:00.260000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:06.040000', '0:00:13.240000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_195</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.09642857142857142</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G', 'C:min']]</t>
-        </is>
+          <t>isophonics_64</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_128</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2302631578947368</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>[['A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(14.08, 18.4)]</t>
+          <t>[['C', 'F', 'C', 'F']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(44.16, 48.16)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:02:02.780000', '0:02:17.555000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:10.634761', '0:00:19.597664')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_30</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_66</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaah_0</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07672413793103448</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'Bb']]</t>
+          <t>[['C/G', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(14.402743, 18.779705)]</t>
+          <t>[['Ab', 'Eb:7', 'Ab']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(1.38, 4.14)]</t>
+          <t>[('0:04:22.920000', '0:04:26.900000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+          <t>[('0:00:25.220000', '0:00:27.170000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.4857142857142857</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D', 'D:7']]</t>
-        </is>
+          <t>isophonics_166</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2589285714285714</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'B:7']]</t>
+          <t>[['A', 'D', 'G'], ['G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(61.32, 64.04)]</t>
+          <t>[['G:maj/B', 'C:maj/E', 'F:maj'], ['F:maj', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(100.569342, 113.665396)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:51.473401', '0:01:00.146054'), ('0:00:17.839297', '0:00:22.785147')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:03:20.520000', '0:03:23.860000'), ('0:00:00.740000', '0:00:21.500000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2517482517482518</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:min/A', 'A:7', 'D:min'], ['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1714285714285714</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min/D#'], ['C:min', 'G:maj/B', 'C:min']]</t>
+          <t>[['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(118.18, 123.04), (0.86, 5.14)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(2.0, 4.32), (16.24, 19.08)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:01:19.980000', '0:01:27.700000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:43.340000', '0:00:59.340000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_70</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.08548951048951049</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db', 'Db']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(24.631133, 29.751133)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(38.31, 41.1)]</t>
+          <t>[('0:00:55.180000', '0:01:02.060000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(13.52, 25.4)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(2.36, 7.56)]</t>
+          <t>[('0:00:21.780000', '0:00:28.040000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:02.500000', '0:01:12.760000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_43</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb', 'Eb:7', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'D#:maj', 'D#:7', 'G#:maj']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(43.54, 49.44)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(82.98, 99.36)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+          <t>[('0:00:16.040000', '0:00:21')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:02.500000', '0:01:12.760000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min'], ['D#:maj/A#', 'A#:7', 'D#:min/A#'], ['D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_155</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(36.18, 37.98), (35.88, 37.42), (9.1, 13.86)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(12.26, 25.04), (49.4, 56.76), (1.44, 6.66)]</t>
+          <t>[('0:00:21.280000', '0:00:41.800000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:01.460000', '0:00:11.260000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_273</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1106719367588933</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(45.48, 48.0)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(20.801, 27.165)]</t>
+          <t>[('0:01:02.500000', '0:01:12.760000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>[('0:00:20.560000', '0:00:26.400000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1440185830429733</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['Db', 'Ab', 'Ab', 'Db']]</t>
-        </is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_165</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'A', 'D/5']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(119.66, 123.07)]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(44.796, 48.571)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:00:11.940000', '0:01:07.800000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:09.700000', '0:01:02.320000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_109</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6875</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'F#:7', 'B:maj', 'D#:7/A#', 'A:(3,5)', 'C#:maj', 'A#:(3,5,b7,b9)', 'D#:min/G#', 'F#:maj/G#', 'G#:7', 'C#:maj', 'C#:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(94.925, 100.821)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(57.48, 64.58)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:00.480000', '0:00:35.060000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:00.580000', '0:00:38.340000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_148</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>0.7083333333333333</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(36.32, 51.92)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(18.16, 47.44)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:33', '0:00:48.220000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:16.440000', '0:00:45.540000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_42</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1902173913043478</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_56</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(41.77, 53.98)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(21.08, 23.68)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:59.640000', '0:01:02.580000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:21.880000', '0:00:24.860000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_123</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2598235765838011</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(117.34, 145.84)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(143.5, 176.78)]</t>
+          <t>[('0:00:30.020000', '0:00:44.280000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:17.180000', '0:00:48.160000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_126</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_135</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.4375</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(100.74, 121.4)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(30.16, 44.08)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
